--- a/Results/TraitModelTables.xlsx
+++ b/Results/TraitModelTables.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">index</t>
   </si>
@@ -242,19 +242,25 @@
     <t xml:space="preserve">nest</t>
   </si>
   <si>
-    <t xml:space="preserve">nest site low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NestSite_Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nest site low (only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nest site high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NestSite_High</t>
+    <t xml:space="preserve">nest site low plus flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NestSite_LowplusFlex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nest site low vs high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NestSite_LowHigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nest site high plus flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NestSite_HighplusFlex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NestSite_HighplusFlex1</t>
   </si>
   <si>
     <t xml:space="preserve">nest safety</t>
@@ -656,28 +662,28 @@
         <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.61</v>
+        <v>1.568</v>
       </c>
       <c r="H2" t="n">
-        <v>0.207</v>
+        <v>0.208</v>
       </c>
       <c r="I2" t="n">
-        <v>7.791</v>
+        <v>7.527</v>
       </c>
       <c r="J2" t="n">
-        <v>1.205</v>
+        <v>1.16</v>
       </c>
       <c r="K2" t="n">
-        <v>2.015</v>
+        <v>1.977</v>
       </c>
       <c r="L2" t="n">
-        <v>0.35</v>
+        <v>0.362</v>
       </c>
       <c r="M2"/>
     </row>
@@ -695,28 +701,28 @@
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.035</v>
+        <v>-0.028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.573</v>
+        <v>-1.231</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.079</v>
+        <v>-0.072</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009</v>
+        <v>0.016</v>
       </c>
       <c r="L3" t="n">
-        <v>0.35</v>
+        <v>0.362</v>
       </c>
       <c r="M3"/>
     </row>
@@ -734,28 +740,28 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.783</v>
+        <v>-0.714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.688</v>
+        <v>0.674</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.138</v>
+        <v>-1.06</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.132</v>
+        <v>-2.035</v>
       </c>
       <c r="K4" t="n">
-        <v>0.566</v>
+        <v>0.607</v>
       </c>
       <c r="L4" t="n">
-        <v>0.291</v>
+        <v>0.269</v>
       </c>
       <c r="M4"/>
     </row>
@@ -773,28 +779,28 @@
         <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="n">
-        <v>0.134</v>
+        <v>0.125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.098</v>
+        <v>0.097</v>
       </c>
       <c r="I5" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.058</v>
+        <v>-0.065</v>
       </c>
       <c r="K5" t="n">
-        <v>0.326</v>
+        <v>0.314</v>
       </c>
       <c r="L5" t="n">
-        <v>0.291</v>
+        <v>0.269</v>
       </c>
       <c r="M5"/>
     </row>
@@ -812,29 +818,29 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.765</v>
+        <v>-0.754</v>
       </c>
       <c r="H6" t="n">
         <v>0.203</v>
       </c>
       <c r="I6" t="n">
-        <v>-3.776</v>
+        <v>-3.71</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.15</v>
+        <v>-1.153</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.39</v>
+        <v>-0.356</v>
       </c>
       <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.557</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7">
@@ -851,29 +857,29 @@
         <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.089</v>
+        <v>0.101</v>
       </c>
       <c r="H7" t="n">
-        <v>0.196</v>
+        <v>0.197</v>
       </c>
       <c r="I7" t="n">
-        <v>0.453</v>
+        <v>0.514</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.232</v>
+        <v>-0.285</v>
       </c>
       <c r="K7" t="n">
-        <v>0.436</v>
+        <v>0.487</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.557</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -945,25 +951,25 @@
         <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.631</v>
+        <v>1.623</v>
       </c>
       <c r="H2" t="n">
         <v>0.325</v>
       </c>
       <c r="I2" t="n">
-        <v>5.012</v>
+        <v>4.986</v>
       </c>
       <c r="J2" t="n">
-        <v>0.993</v>
+        <v>0.985</v>
       </c>
       <c r="K2" t="n">
-        <v>2.269</v>
+        <v>2.261</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -984,25 +990,25 @@
         <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.263</v>
+        <v>0.269</v>
       </c>
       <c r="H3" t="n">
-        <v>0.61</v>
+        <v>0.609</v>
       </c>
       <c r="I3" t="n">
-        <v>0.432</v>
+        <v>0.442</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.932</v>
+        <v>-0.925</v>
       </c>
       <c r="K3" t="n">
-        <v>1.458</v>
+        <v>1.464</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1023,25 +1029,25 @@
         <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.042</v>
+        <v>-0.041</v>
       </c>
       <c r="H4" t="n">
         <v>0.02</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.084</v>
+        <v>-2.014</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.082</v>
+        <v>-0.081</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1179,29 +1185,29 @@
         <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.262</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
-        <v>0.351</v>
+        <v>0.606</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.745</v>
+        <v>0.986</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.978</v>
+        <v>-0.59</v>
       </c>
       <c r="K8" t="n">
-        <v>0.474</v>
+        <v>1.785</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.385</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="9">
@@ -1218,29 +1224,29 @@
         <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.118</v>
+        <v>-0.552</v>
       </c>
       <c r="H9" t="n">
-        <v>0.353</v>
+        <v>0.442</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.335</v>
+        <v>-1.25</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.044</v>
+        <v>-1.418</v>
       </c>
       <c r="K9" t="n">
-        <v>0.535</v>
+        <v>0.313</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>0.385</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="10">
@@ -1257,29 +1263,29 @@
         <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125</v>
+        <v>0.706</v>
       </c>
       <c r="H10" t="n">
-        <v>0.335</v>
+        <v>0.439</v>
       </c>
       <c r="I10" t="n">
-        <v>0.374</v>
+        <v>1.61</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.652</v>
+        <v>-0.153</v>
       </c>
       <c r="K10" t="n">
-        <v>0.867</v>
+        <v>1.566</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>0.385</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="11">
@@ -1296,28 +1302,28 @@
         <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1.411</v>
+        <v>1.438</v>
       </c>
       <c r="H11" t="n">
-        <v>0.415</v>
+        <v>0.408</v>
       </c>
       <c r="I11" t="n">
-        <v>3.401</v>
+        <v>3.526</v>
       </c>
       <c r="J11" t="n">
-        <v>0.598</v>
+        <v>0.639</v>
       </c>
       <c r="K11" t="n">
-        <v>2.224</v>
+        <v>2.237</v>
       </c>
       <c r="L11" t="n">
-        <v>0.72</v>
+        <v>0.747</v>
       </c>
       <c r="M11"/>
     </row>
@@ -1335,28 +1341,28 @@
         <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.042</v>
+        <v>-0.052</v>
       </c>
       <c r="H12" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.041</v>
+        <v>-1.315</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.122</v>
+        <v>-0.128</v>
       </c>
       <c r="K12" t="n">
-        <v>0.037</v>
+        <v>0.025</v>
       </c>
       <c r="L12" t="n">
-        <v>0.72</v>
+        <v>0.747</v>
       </c>
       <c r="M12"/>
     </row>
@@ -1374,7 +1380,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -1383,19 +1389,19 @@
         <v>0.013</v>
       </c>
       <c r="H13" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="I13" t="n">
         <v>0.275</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.08</v>
+        <v>-0.079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.107</v>
+        <v>0.104</v>
       </c>
       <c r="L13" t="n">
-        <v>0.72</v>
+        <v>0.747</v>
       </c>
       <c r="M13"/>
     </row>
@@ -1413,25 +1419,25 @@
         <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.931</v>
+        <v>-0.633</v>
       </c>
       <c r="H14" t="n">
-        <v>1.173</v>
+        <v>1.181</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.794</v>
+        <v>-0.536</v>
       </c>
       <c r="J14" t="n">
-        <v>-3.231</v>
+        <v>-2.949</v>
       </c>
       <c r="K14" t="n">
-        <v>1.369</v>
+        <v>1.682</v>
       </c>
       <c r="L14" t="n">
         <v>0.1</v>
@@ -1452,25 +1458,25 @@
         <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03</v>
+        <v>-0.052</v>
       </c>
       <c r="H15" t="n">
         <v>0.154</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.194</v>
+        <v>-0.337</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.332</v>
+        <v>-0.353</v>
       </c>
       <c r="K15" t="n">
-        <v>0.272</v>
+        <v>0.25</v>
       </c>
       <c r="L15" t="n">
         <v>0.1</v>
@@ -1491,25 +1497,25 @@
         <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.203</v>
+        <v>0.165</v>
       </c>
       <c r="H16" t="n">
-        <v>0.155</v>
+        <v>0.156</v>
       </c>
       <c r="I16" t="n">
-        <v>1.309</v>
+        <v>1.058</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.101</v>
+        <v>-0.141</v>
       </c>
       <c r="K16" t="n">
-        <v>0.508</v>
+        <v>0.471</v>
       </c>
       <c r="L16" t="n">
         <v>0.1</v>
@@ -1530,29 +1536,29 @@
         <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.881</v>
+        <v>-0.762</v>
       </c>
       <c r="H17" t="n">
-        <v>0.209</v>
+        <v>0.204</v>
       </c>
       <c r="I17" t="n">
-        <v>-4.225</v>
+        <v>-3.729</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.4</v>
+        <v>-1.163</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.457</v>
+        <v>-0.362</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="18">
@@ -1569,29 +1575,29 @@
         <v>27</v>
       </c>
       <c r="E18" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>0.024</v>
+        <v>0.311</v>
       </c>
       <c r="H18" t="n">
-        <v>0.275</v>
+        <v>0.277</v>
       </c>
       <c r="I18" t="n">
-        <v>0.088</v>
+        <v>1.122</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.588</v>
+        <v>-0.232</v>
       </c>
       <c r="K18" t="n">
-        <v>0.66</v>
+        <v>0.854</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="19">
@@ -1608,29 +1614,29 @@
         <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.171</v>
+        <v>0.325</v>
       </c>
       <c r="H19" t="n">
-        <v>0.287</v>
+        <v>0.279</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.596</v>
+        <v>1.165</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.825</v>
+        <v>-0.222</v>
       </c>
       <c r="K19" t="n">
-        <v>0.498</v>
+        <v>0.871</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -1702,28 +1708,28 @@
         <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.647</v>
+        <v>1.631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.223</v>
+        <v>0.224</v>
       </c>
       <c r="I2" t="n">
-        <v>7.388</v>
+        <v>7.272</v>
       </c>
       <c r="J2" t="n">
-        <v>1.21</v>
+        <v>1.192</v>
       </c>
       <c r="K2" t="n">
-        <v>2.084</v>
+        <v>2.071</v>
       </c>
       <c r="L2" t="n">
-        <v>0.352</v>
+        <v>0.363</v>
       </c>
       <c r="M2"/>
     </row>
@@ -1741,19 +1747,19 @@
         <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="H3" t="n">
         <v>0.001</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.451</v>
+        <v>-0.769</v>
       </c>
       <c r="J3" t="n">
         <v>-0.002</v>
@@ -1762,7 +1768,7 @@
         <v>0.001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.352</v>
+        <v>0.363</v>
       </c>
       <c r="M3"/>
     </row>
@@ -1780,28 +1786,28 @@
         <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.039</v>
+        <v>-0.034</v>
       </c>
       <c r="H4" t="n">
         <v>0.024</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.631</v>
+        <v>-1.417</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.086</v>
+        <v>-0.081</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="L4" t="n">
-        <v>0.352</v>
+        <v>0.363</v>
       </c>
       <c r="M4"/>
     </row>
@@ -1819,28 +1825,28 @@
         <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.217</v>
+        <v>0.548</v>
       </c>
       <c r="H5" t="n">
-        <v>0.852</v>
+        <v>0.844</v>
       </c>
       <c r="I5" t="n">
-        <v>0.255</v>
+        <v>0.65</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.452</v>
+        <v>-1.106</v>
       </c>
       <c r="K5" t="n">
-        <v>1.886</v>
+        <v>2.203</v>
       </c>
       <c r="L5" t="n">
-        <v>0.272</v>
+        <v>0.245</v>
       </c>
       <c r="M5"/>
     </row>
@@ -1858,28 +1864,28 @@
         <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.009</v>
+        <v>-0.012</v>
       </c>
       <c r="H6" t="n">
         <v>0.005</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.923</v>
+        <v>-2.35</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.019</v>
+        <v>-0.021</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="L6" t="n">
-        <v>0.272</v>
+        <v>0.245</v>
       </c>
       <c r="M6"/>
     </row>
@@ -1897,28 +1903,28 @@
         <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.031</v>
+        <v>-0.007</v>
       </c>
       <c r="H7" t="n">
         <v>0.11</v>
       </c>
       <c r="I7" t="n">
-        <v>0.277</v>
+        <v>-0.065</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.186</v>
+        <v>-0.222</v>
       </c>
       <c r="K7" t="n">
-        <v>0.247</v>
+        <v>0.208</v>
       </c>
       <c r="L7" t="n">
-        <v>0.272</v>
+        <v>0.245</v>
       </c>
       <c r="M7"/>
     </row>
@@ -1936,29 +1942,29 @@
         <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.781</v>
+        <v>-0.91</v>
       </c>
       <c r="H8" t="n">
-        <v>0.203</v>
+        <v>0.211</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.85</v>
+        <v>-4.316</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.169</v>
+        <v>-1.324</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.393</v>
+        <v>-0.497</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.585</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="9">
@@ -1975,29 +1981,29 @@
         <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.059</v>
+        <v>0.268</v>
       </c>
       <c r="H9" t="n">
-        <v>0.269</v>
+        <v>0.284</v>
       </c>
       <c r="I9" t="n">
-        <v>0.22</v>
+        <v>0.946</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.445</v>
+        <v>-0.287</v>
       </c>
       <c r="K9" t="n">
-        <v>0.515</v>
+        <v>0.824</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>0.585</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="10">
@@ -2014,29 +2020,29 @@
         <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.068</v>
+        <v>0.424</v>
       </c>
       <c r="H10" t="n">
-        <v>0.273</v>
+        <v>0.288</v>
       </c>
       <c r="I10" t="n">
-        <v>0.248</v>
+        <v>1.475</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.421</v>
+        <v>-0.139</v>
       </c>
       <c r="K10" t="n">
-        <v>0.522</v>
+        <v>0.988</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>0.585</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="11">
@@ -2053,28 +2059,28 @@
         <v>34</v>
       </c>
       <c r="E11" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1.614</v>
+        <v>1.569</v>
       </c>
       <c r="H11" t="n">
-        <v>0.208</v>
+        <v>0.21</v>
       </c>
       <c r="I11" t="n">
-        <v>7.758</v>
+        <v>7.49</v>
       </c>
       <c r="J11" t="n">
-        <v>1.206</v>
+        <v>1.159</v>
       </c>
       <c r="K11" t="n">
-        <v>2.021</v>
+        <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>0.352</v>
+        <v>0.362</v>
       </c>
       <c r="M11"/>
     </row>
@@ -2092,7 +2098,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F12" t="s">
         <v>35</v>
@@ -2104,7 +2110,7 @@
         <v>0.001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.186</v>
+        <v>0.054</v>
       </c>
       <c r="J12" t="n">
         <v>-0.002</v>
@@ -2113,7 +2119,7 @@
         <v>0.002</v>
       </c>
       <c r="L12" t="n">
-        <v>0.352</v>
+        <v>0.362</v>
       </c>
       <c r="M12"/>
     </row>
@@ -2131,28 +2137,28 @@
         <v>34</v>
       </c>
       <c r="E13" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.037</v>
+        <v>-0.028</v>
       </c>
       <c r="H13" t="n">
         <v>0.024</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.534</v>
+        <v>-1.166</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.084</v>
+        <v>-0.076</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="L13" t="n">
-        <v>0.352</v>
+        <v>0.362</v>
       </c>
       <c r="M13"/>
     </row>
@@ -2170,28 +2176,28 @@
         <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.644</v>
+        <v>-0.586</v>
       </c>
       <c r="H14" t="n">
-        <v>0.684</v>
+        <v>0.665</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.941</v>
+        <v>-0.881</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.985</v>
+        <v>-1.889</v>
       </c>
       <c r="K14" t="n">
-        <v>0.697</v>
+        <v>0.717</v>
       </c>
       <c r="L14" t="n">
-        <v>0.279</v>
+        <v>0.248</v>
       </c>
       <c r="M14"/>
     </row>
@@ -2209,7 +2215,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
@@ -2221,16 +2227,16 @@
         <v>0.005</v>
       </c>
       <c r="I15" t="n">
-        <v>1.485</v>
+        <v>1.409</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="K15" t="n">
         <v>0.016</v>
       </c>
       <c r="L15" t="n">
-        <v>0.279</v>
+        <v>0.248</v>
       </c>
       <c r="M15"/>
     </row>
@@ -2248,28 +2254,28 @@
         <v>34</v>
       </c>
       <c r="E16" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.067</v>
+        <v>0.062</v>
       </c>
       <c r="H16" t="n">
-        <v>0.107</v>
+        <v>0.106</v>
       </c>
       <c r="I16" t="n">
-        <v>0.62</v>
+        <v>0.583</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.144</v>
+        <v>-0.145</v>
       </c>
       <c r="K16" t="n">
-        <v>0.277</v>
+        <v>0.269</v>
       </c>
       <c r="L16" t="n">
-        <v>0.279</v>
+        <v>0.248</v>
       </c>
       <c r="M16"/>
     </row>
@@ -2287,29 +2293,29 @@
         <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.782</v>
+        <v>-0.764</v>
       </c>
       <c r="H17" t="n">
         <v>0.203</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.854</v>
+        <v>-3.754</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.188</v>
+        <v>-1.163</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.403</v>
+        <v>-0.365</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>0.588</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="18">
@@ -2326,29 +2332,29 @@
         <v>34</v>
       </c>
       <c r="E18" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.215</v>
+        <v>0.226</v>
       </c>
       <c r="H18" t="n">
         <v>0.203</v>
       </c>
       <c r="I18" t="n">
-        <v>1.06</v>
+        <v>1.112</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.203</v>
+        <v>-0.172</v>
       </c>
       <c r="K18" t="n">
-        <v>0.581</v>
+        <v>0.624</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
-        <v>0.588</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="19">
@@ -2365,29 +2371,29 @@
         <v>34</v>
       </c>
       <c r="E19" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.083</v>
+        <v>0.011</v>
       </c>
       <c r="H19" t="n">
         <v>0.209</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.394</v>
+        <v>0.055</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.475</v>
+        <v>-0.398</v>
       </c>
       <c r="K19" t="n">
-        <v>0.303</v>
+        <v>0.421</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="n">
-        <v>0.588</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="20">
@@ -2404,28 +2410,28 @@
         <v>37</v>
       </c>
       <c r="E20" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>1.607</v>
+        <v>1.553</v>
       </c>
       <c r="H20" t="n">
-        <v>0.208</v>
+        <v>0.209</v>
       </c>
       <c r="I20" t="n">
-        <v>7.738</v>
+        <v>7.421</v>
       </c>
       <c r="J20" t="n">
-        <v>1.2</v>
+        <v>1.143</v>
       </c>
       <c r="K20" t="n">
-        <v>2.014</v>
+        <v>1.963</v>
       </c>
       <c r="L20" t="n">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="M20"/>
     </row>
@@ -2443,28 +2449,28 @@
         <v>37</v>
       </c>
       <c r="E21" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="H21" t="n">
         <v>0.001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.153</v>
+        <v>0.806</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="L21" t="n">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="M21"/>
     </row>
@@ -2482,28 +2488,28 @@
         <v>37</v>
       </c>
       <c r="E22" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.036</v>
+        <v>-0.029</v>
       </c>
       <c r="H22" t="n">
         <v>0.023</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.578</v>
+        <v>-1.279</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.08</v>
+        <v>-0.073</v>
       </c>
       <c r="K22" t="n">
-        <v>0.009</v>
+        <v>0.015</v>
       </c>
       <c r="L22" t="n">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="M22"/>
     </row>
@@ -2521,28 +2527,28 @@
         <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.783</v>
+        <v>-0.733</v>
       </c>
       <c r="H23" t="n">
-        <v>0.693</v>
+        <v>0.683</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.13</v>
+        <v>-1.073</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.142</v>
+        <v>-2.072</v>
       </c>
       <c r="K23" t="n">
-        <v>0.575</v>
+        <v>0.606</v>
       </c>
       <c r="L23" t="n">
-        <v>0.291</v>
+        <v>0.279</v>
       </c>
       <c r="M23"/>
     </row>
@@ -2560,28 +2566,28 @@
         <v>37</v>
       </c>
       <c r="E24" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H24" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003</v>
+        <v>0.59</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01</v>
+        <v>-0.008</v>
       </c>
       <c r="K24" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="L24" t="n">
-        <v>0.291</v>
+        <v>0.279</v>
       </c>
       <c r="M24"/>
     </row>
@@ -2599,28 +2605,28 @@
         <v>37</v>
       </c>
       <c r="E25" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.134</v>
+        <v>0.118</v>
       </c>
       <c r="H25" t="n">
-        <v>0.099</v>
+        <v>0.098</v>
       </c>
       <c r="I25" t="n">
-        <v>1.36</v>
+        <v>1.198</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.059</v>
+        <v>-0.075</v>
       </c>
       <c r="K25" t="n">
-        <v>0.328</v>
+        <v>0.31</v>
       </c>
       <c r="L25" t="n">
-        <v>0.291</v>
+        <v>0.279</v>
       </c>
       <c r="M25"/>
     </row>
@@ -2638,29 +2644,29 @@
         <v>37</v>
       </c>
       <c r="E26" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.499</v>
+        <v>-0.48</v>
       </c>
       <c r="H26" t="n">
-        <v>0.237</v>
+        <v>0.24</v>
       </c>
       <c r="I26" t="n">
-        <v>-2.107</v>
+        <v>-2.003</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.976</v>
+        <v>-0.95</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.024</v>
+        <v>-0.01</v>
       </c>
       <c r="L26"/>
       <c r="M26" t="n">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="27">
@@ -2677,29 +2683,29 @@
         <v>37</v>
       </c>
       <c r="E27" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.496</v>
+        <v>-0.509</v>
       </c>
       <c r="H27" t="n">
-        <v>0.268</v>
+        <v>0.27</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.85</v>
+        <v>-1.887</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.01</v>
+        <v>-1.037</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.027</v>
+        <v>0.02</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="28">
@@ -2716,29 +2722,29 @@
         <v>37</v>
       </c>
       <c r="E28" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.558</v>
+        <v>0.57</v>
       </c>
       <c r="H28" t="n">
-        <v>0.257</v>
+        <v>0.258</v>
       </c>
       <c r="I28" t="n">
-        <v>2.172</v>
+        <v>2.208</v>
       </c>
       <c r="J28" t="n">
-        <v>0.045</v>
+        <v>0.064</v>
       </c>
       <c r="K28" t="n">
-        <v>1.03</v>
+        <v>1.077</v>
       </c>
       <c r="L28"/>
       <c r="M28" t="n">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="29">
@@ -2755,28 +2761,28 @@
         <v>40</v>
       </c>
       <c r="E29" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>1.601</v>
+        <v>1.564</v>
       </c>
       <c r="H29" t="n">
-        <v>0.207</v>
+        <v>0.209</v>
       </c>
       <c r="I29" t="n">
-        <v>7.739</v>
+        <v>7.48</v>
       </c>
       <c r="J29" t="n">
-        <v>1.195</v>
+        <v>1.154</v>
       </c>
       <c r="K29" t="n">
-        <v>2.006</v>
+        <v>1.974</v>
       </c>
       <c r="L29" t="n">
-        <v>0.347</v>
+        <v>0.36</v>
       </c>
       <c r="M29"/>
     </row>
@@ -2794,28 +2800,28 @@
         <v>40</v>
       </c>
       <c r="E30" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F30" t="s">
         <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0.002</v>
       </c>
       <c r="I30" t="n">
-        <v>0.426</v>
+        <v>0.208</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="K30" t="n">
         <v>0.005</v>
       </c>
       <c r="L30" t="n">
-        <v>0.347</v>
+        <v>0.36</v>
       </c>
       <c r="M30"/>
     </row>
@@ -2833,28 +2839,28 @@
         <v>40</v>
       </c>
       <c r="E31" t="n">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.035</v>
+        <v>-0.028</v>
       </c>
       <c r="H31" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.546</v>
+        <v>-1.218</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.079</v>
+        <v>-0.072</v>
       </c>
       <c r="K31" t="n">
-        <v>0.009</v>
+        <v>0.017</v>
       </c>
       <c r="L31" t="n">
-        <v>0.347</v>
+        <v>0.36</v>
       </c>
       <c r="M31"/>
     </row>
@@ -2872,28 +2878,28 @@
         <v>40</v>
       </c>
       <c r="E32" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.871</v>
+        <v>-0.795</v>
       </c>
       <c r="H32" t="n">
-        <v>0.671</v>
+        <v>0.661</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.297</v>
+        <v>-1.203</v>
       </c>
       <c r="J32" t="n">
-        <v>-2.187</v>
+        <v>-2.09</v>
       </c>
       <c r="K32" t="n">
-        <v>0.445</v>
+        <v>0.5</v>
       </c>
       <c r="L32" t="n">
-        <v>0.264</v>
+        <v>0.242</v>
       </c>
       <c r="M32"/>
     </row>
@@ -2911,28 +2917,28 @@
         <v>40</v>
       </c>
       <c r="E33" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F33" t="s">
         <v>41</v>
       </c>
       <c r="G33" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="H33" t="n">
         <v>0.017</v>
       </c>
       <c r="I33" t="n">
-        <v>1.259</v>
+        <v>1.007</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.012</v>
+        <v>-0.016</v>
       </c>
       <c r="K33" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="L33" t="n">
-        <v>0.264</v>
+        <v>0.242</v>
       </c>
       <c r="M33"/>
     </row>
@@ -2950,28 +2956,28 @@
         <v>40</v>
       </c>
       <c r="E34" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>0.14</v>
+        <v>0.131</v>
       </c>
       <c r="H34" t="n">
-        <v>0.096</v>
+        <v>0.095</v>
       </c>
       <c r="I34" t="n">
-        <v>1.454</v>
+        <v>1.372</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.049</v>
+        <v>-0.056</v>
       </c>
       <c r="K34" t="n">
-        <v>0.329</v>
+        <v>0.318</v>
       </c>
       <c r="L34" t="n">
-        <v>0.264</v>
+        <v>0.242</v>
       </c>
       <c r="M34"/>
     </row>
@@ -2989,29 +2995,29 @@
         <v>40</v>
       </c>
       <c r="E35" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.415</v>
+        <v>-0.358</v>
       </c>
       <c r="H35" t="n">
-        <v>0.243</v>
+        <v>0.249</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.706</v>
+        <v>-1.438</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.907</v>
+        <v>-0.845</v>
       </c>
       <c r="K35" t="n">
-        <v>0.047</v>
+        <v>0.13</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="36">
@@ -3028,29 +3034,29 @@
         <v>40</v>
       </c>
       <c r="E36" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
       </c>
       <c r="G36" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="H36" t="n">
-        <v>0.193</v>
+        <v>0.195</v>
       </c>
       <c r="I36" t="n">
-        <v>1.136</v>
+        <v>1.159</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.154</v>
+        <v>-0.156</v>
       </c>
       <c r="K36" t="n">
-        <v>0.614</v>
+        <v>0.607</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="37">
@@ -3067,29 +3073,29 @@
         <v>40</v>
       </c>
       <c r="E37" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
       </c>
       <c r="G37" t="n">
-        <v>0.475</v>
+        <v>0.493</v>
       </c>
       <c r="H37" t="n">
-        <v>0.227</v>
+        <v>0.232</v>
       </c>
       <c r="I37" t="n">
-        <v>2.087</v>
+        <v>2.131</v>
       </c>
       <c r="J37" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="K37" t="n">
-        <v>0.955</v>
+        <v>0.947</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
     </row>
   </sheetData>
@@ -3161,28 +3167,28 @@
         <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.463</v>
+        <v>1.375</v>
       </c>
       <c r="H2" t="n">
-        <v>0.27</v>
+        <v>0.273</v>
       </c>
       <c r="I2" t="n">
-        <v>5.407</v>
+        <v>5.039</v>
       </c>
       <c r="J2" t="n">
-        <v>0.932</v>
+        <v>0.84</v>
       </c>
       <c r="K2" t="n">
-        <v>1.993</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>0.416</v>
+        <v>0.45</v>
       </c>
       <c r="M2"/>
     </row>
@@ -3200,28 +3206,28 @@
         <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.16</v>
+        <v>-0.184</v>
       </c>
       <c r="H3" t="n">
         <v>0.077</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.075</v>
+        <v>-2.402</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.312</v>
+        <v>-0.335</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.009</v>
+        <v>-0.034</v>
       </c>
       <c r="L3" t="n">
-        <v>0.416</v>
+        <v>0.45</v>
       </c>
       <c r="M3"/>
     </row>
@@ -3239,28 +3245,28 @@
         <v>44</v>
       </c>
       <c r="E4" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.091</v>
+        <v>-0.088</v>
       </c>
       <c r="H4" t="n">
         <v>0.028</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.278</v>
+        <v>-3.17</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.145</v>
+        <v>-0.142</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.036</v>
+        <v>-0.034</v>
       </c>
       <c r="L4" t="n">
-        <v>0.416</v>
+        <v>0.45</v>
       </c>
       <c r="M4"/>
     </row>
@@ -3278,28 +3284,28 @@
         <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.654</v>
+        <v>-1.847</v>
       </c>
       <c r="H5" t="n">
-        <v>1.075</v>
+        <v>1.073</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.539</v>
+        <v>-1.72</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.761</v>
+        <v>-3.951</v>
       </c>
       <c r="K5" t="n">
-        <v>0.453</v>
+        <v>0.257</v>
       </c>
       <c r="L5" t="n">
-        <v>0.254</v>
+        <v>0.242</v>
       </c>
       <c r="M5"/>
     </row>
@@ -3317,28 +3323,28 @@
         <v>44</v>
       </c>
       <c r="E6" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.463</v>
+        <v>-0.584</v>
       </c>
       <c r="H6" t="n">
-        <v>0.436</v>
+        <v>0.442</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.062</v>
+        <v>-1.322</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.318</v>
+        <v>-1.449</v>
       </c>
       <c r="K6" t="n">
-        <v>0.392</v>
+        <v>0.282</v>
       </c>
       <c r="L6" t="n">
-        <v>0.254</v>
+        <v>0.242</v>
       </c>
       <c r="M6"/>
     </row>
@@ -3356,28 +3362,28 @@
         <v>44</v>
       </c>
       <c r="E7" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.053</v>
+        <v>0.027</v>
       </c>
       <c r="H7" t="n">
         <v>0.121</v>
       </c>
       <c r="I7" t="n">
-        <v>0.437</v>
+        <v>0.224</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.185</v>
+        <v>-0.211</v>
       </c>
       <c r="K7" t="n">
-        <v>0.291</v>
+        <v>0.265</v>
       </c>
       <c r="L7" t="n">
-        <v>0.254</v>
+        <v>0.242</v>
       </c>
       <c r="M7"/>
     </row>
@@ -3395,29 +3401,29 @@
         <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.759</v>
+        <v>-0.711</v>
       </c>
       <c r="H8" t="n">
         <v>0.228</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.328</v>
+        <v>-3.123</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.247</v>
+        <v>-1.157</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.275</v>
+        <v>-0.265</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.559</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="9">
@@ -3434,29 +3440,29 @@
         <v>44</v>
       </c>
       <c r="E9" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
         <v>46</v>
       </c>
       <c r="G9" t="n">
-        <v>0.021</v>
+        <v>0.166</v>
       </c>
       <c r="H9" t="n">
-        <v>0.284</v>
+        <v>0.286</v>
       </c>
       <c r="I9" t="n">
-        <v>0.072</v>
+        <v>0.579</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.548</v>
+        <v>-0.395</v>
       </c>
       <c r="K9" t="n">
-        <v>0.717</v>
+        <v>0.727</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>0.559</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="10">
@@ -3473,29 +3479,29 @@
         <v>44</v>
       </c>
       <c r="E10" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.093</v>
+        <v>0.064</v>
       </c>
       <c r="H10" t="n">
-        <v>0.295</v>
+        <v>0.297</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.316</v>
+        <v>0.216</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.672</v>
+        <v>-0.518</v>
       </c>
       <c r="K10" t="n">
-        <v>0.703</v>
+        <v>0.646</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>0.559</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="11">
@@ -3512,28 +3518,28 @@
         <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1.356</v>
+        <v>1.319</v>
       </c>
       <c r="H11" t="n">
         <v>0.212</v>
       </c>
       <c r="I11" t="n">
-        <v>6.404</v>
+        <v>6.231</v>
       </c>
       <c r="J11" t="n">
-        <v>0.941</v>
+        <v>0.904</v>
       </c>
       <c r="K11" t="n">
-        <v>1.771</v>
+        <v>1.733</v>
       </c>
       <c r="L11" t="n">
-        <v>0.31</v>
+        <v>0.316</v>
       </c>
       <c r="M11"/>
     </row>
@@ -3551,7 +3557,7 @@
         <v>47</v>
       </c>
       <c r="E12" t="n">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
@@ -3563,16 +3569,16 @@
         <v>0.015</v>
       </c>
       <c r="I12" t="n">
-        <v>3.446</v>
+        <v>3.418</v>
       </c>
       <c r="J12" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="K12" t="n">
-        <v>0.079</v>
+        <v>0.078</v>
       </c>
       <c r="L12" t="n">
-        <v>0.31</v>
+        <v>0.316</v>
       </c>
       <c r="M12"/>
     </row>
@@ -3590,28 +3596,28 @@
         <v>47</v>
       </c>
       <c r="E13" t="n">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.029</v>
+        <v>-0.022</v>
       </c>
       <c r="H13" t="n">
         <v>0.022</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.316</v>
+        <v>-1</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.073</v>
+        <v>-0.066</v>
       </c>
       <c r="K13" t="n">
-        <v>0.014</v>
+        <v>0.022</v>
       </c>
       <c r="L13" t="n">
-        <v>0.31</v>
+        <v>0.316</v>
       </c>
       <c r="M13"/>
     </row>
@@ -3629,28 +3635,28 @@
         <v>47</v>
       </c>
       <c r="E14" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.115</v>
+        <v>-0.978</v>
       </c>
       <c r="H14" t="n">
-        <v>0.935</v>
+        <v>0.916</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.192</v>
+        <v>-1.068</v>
       </c>
       <c r="J14" t="n">
-        <v>-2.948</v>
+        <v>-2.772</v>
       </c>
       <c r="K14" t="n">
-        <v>0.719</v>
+        <v>0.817</v>
       </c>
       <c r="L14" t="n">
-        <v>0.379</v>
+        <v>0.35</v>
       </c>
       <c r="M14"/>
     </row>
@@ -3668,28 +3674,28 @@
         <v>47</v>
       </c>
       <c r="E15" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="G15" t="n">
-        <v>0.073</v>
+        <v>0.06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
       <c r="I15" t="n">
-        <v>0.901</v>
+        <v>0.755</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.085</v>
+        <v>-0.096</v>
       </c>
       <c r="K15" t="n">
-        <v>0.231</v>
+        <v>0.215</v>
       </c>
       <c r="L15" t="n">
-        <v>0.379</v>
+        <v>0.35</v>
       </c>
       <c r="M15"/>
     </row>
@@ -3707,28 +3713,28 @@
         <v>47</v>
       </c>
       <c r="E16" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.136</v>
+        <v>0.125</v>
       </c>
       <c r="H16" t="n">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="I16" t="n">
-        <v>1.268</v>
+        <v>1.181</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.074</v>
+        <v>-0.083</v>
       </c>
       <c r="K16" t="n">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="L16" t="n">
-        <v>0.379</v>
+        <v>0.35</v>
       </c>
       <c r="M16"/>
     </row>
@@ -3746,29 +3752,29 @@
         <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.737</v>
+        <v>-0.73</v>
       </c>
       <c r="H17" t="n">
         <v>0.207</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.564</v>
+        <v>-3.52</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.129</v>
+        <v>-1.137</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.341</v>
+        <v>-0.324</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
-        <v>0.556</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="18">
@@ -3785,29 +3791,29 @@
         <v>47</v>
       </c>
       <c r="E18" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.187</v>
+        <v>-0.161</v>
       </c>
       <c r="H18" t="n">
         <v>0.223</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.839</v>
+        <v>-0.722</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.612</v>
+        <v>-0.597</v>
       </c>
       <c r="K18" t="n">
         <v>0.275</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
-        <v>0.556</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="19">
@@ -3824,29 +3830,29 @@
         <v>47</v>
       </c>
       <c r="E19" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>0.098</v>
+        <v>0.073</v>
       </c>
       <c r="H19" t="n">
-        <v>0.201</v>
+        <v>0.202</v>
       </c>
       <c r="I19" t="n">
-        <v>0.485</v>
+        <v>0.363</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.321</v>
+        <v>-0.323</v>
       </c>
       <c r="K19" t="n">
-        <v>0.493</v>
+        <v>0.47</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="n">
-        <v>0.556</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="20">
@@ -3863,28 +3869,28 @@
         <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>1.565</v>
+        <v>1.522</v>
       </c>
       <c r="H20" t="n">
         <v>0.196</v>
       </c>
       <c r="I20" t="n">
-        <v>7.998</v>
+        <v>7.761</v>
       </c>
       <c r="J20" t="n">
-        <v>1.182</v>
+        <v>1.137</v>
       </c>
       <c r="K20" t="n">
-        <v>1.949</v>
+        <v>1.906</v>
       </c>
       <c r="L20" t="n">
-        <v>0.303</v>
+        <v>0.309</v>
       </c>
       <c r="M20"/>
     </row>
@@ -3902,7 +3908,7 @@
         <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F21" t="s">
         <v>50</v>
@@ -3914,16 +3920,16 @@
         <v>0.006</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.317</v>
+        <v>-1.485</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.019</v>
+        <v>-0.02</v>
       </c>
       <c r="K21" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="L21" t="n">
-        <v>0.303</v>
+        <v>0.309</v>
       </c>
       <c r="M21"/>
     </row>
@@ -3941,28 +3947,28 @@
         <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005</v>
+        <v>0.006</v>
       </c>
       <c r="H22" t="n">
         <v>0.031</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.166</v>
+        <v>0.18</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.066</v>
+        <v>-0.055</v>
       </c>
       <c r="K22" t="n">
-        <v>0.055</v>
+        <v>0.066</v>
       </c>
       <c r="L22" t="n">
-        <v>0.303</v>
+        <v>0.309</v>
       </c>
       <c r="M22"/>
     </row>
@@ -3980,28 +3986,28 @@
         <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.921</v>
+        <v>-0.853</v>
       </c>
       <c r="H23" t="n">
-        <v>0.714</v>
+        <v>0.701</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.29</v>
+        <v>-1.217</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.32</v>
+        <v>-2.226</v>
       </c>
       <c r="K23" t="n">
-        <v>0.478</v>
+        <v>0.521</v>
       </c>
       <c r="L23" t="n">
-        <v>0.299</v>
+        <v>0.281</v>
       </c>
       <c r="M23"/>
     </row>
@@ -4019,28 +4025,28 @@
         <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
         <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.029</v>
+        <v>-0.03</v>
       </c>
       <c r="H24" t="n">
         <v>0.034</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.85</v>
+        <v>-0.883</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.095</v>
+        <v>-0.096</v>
       </c>
       <c r="K24" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="L24" t="n">
-        <v>0.299</v>
+        <v>0.281</v>
       </c>
       <c r="M24"/>
     </row>
@@ -4058,28 +4064,28 @@
         <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.244</v>
+        <v>0.238</v>
       </c>
       <c r="H25" t="n">
-        <v>0.163</v>
+        <v>0.161</v>
       </c>
       <c r="I25" t="n">
-        <v>1.498</v>
+        <v>1.473</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.075</v>
+        <v>-0.078</v>
       </c>
       <c r="K25" t="n">
-        <v>0.563</v>
+        <v>0.554</v>
       </c>
       <c r="L25" t="n">
-        <v>0.299</v>
+        <v>0.281</v>
       </c>
       <c r="M25"/>
     </row>
@@ -4097,29 +4103,29 @@
         <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.77</v>
+        <v>-0.76</v>
       </c>
       <c r="H26" t="n">
-        <v>0.203</v>
+        <v>0.204</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.79</v>
+        <v>-3.736</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.138</v>
+        <v>-1.159</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.411</v>
+        <v>-0.361</v>
       </c>
       <c r="L26"/>
       <c r="M26" t="n">
-        <v>0.557</v>
+        <v>0.559</v>
       </c>
     </row>
     <row r="27">
@@ -4136,29 +4142,29 @@
         <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1</v>
+        <v>-0.155</v>
       </c>
       <c r="H27" t="n">
-        <v>0.349</v>
+        <v>0.356</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.287</v>
+        <v>-0.436</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.719</v>
+        <v>-0.853</v>
       </c>
       <c r="K27" t="n">
-        <v>0.398</v>
+        <v>0.543</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>0.557</v>
+        <v>0.559</v>
       </c>
     </row>
     <row r="28">
@@ -4175,29 +4181,29 @@
         <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.143</v>
+        <v>0.201</v>
       </c>
       <c r="H28" t="n">
-        <v>0.348</v>
+        <v>0.356</v>
       </c>
       <c r="I28" t="n">
-        <v>0.411</v>
+        <v>0.565</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.419</v>
+        <v>-0.497</v>
       </c>
       <c r="K28" t="n">
-        <v>0.838</v>
+        <v>0.899</v>
       </c>
       <c r="L28"/>
       <c r="M28" t="n">
-        <v>0.557</v>
+        <v>0.559</v>
       </c>
     </row>
     <row r="29">
@@ -4214,28 +4220,28 @@
         <v>52</v>
       </c>
       <c r="E29" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>1.687</v>
+        <v>1.674</v>
       </c>
       <c r="H29" t="n">
-        <v>0.231</v>
+        <v>0.23</v>
       </c>
       <c r="I29" t="n">
-        <v>7.31</v>
+        <v>7.271</v>
       </c>
       <c r="J29" t="n">
-        <v>1.235</v>
+        <v>1.223</v>
       </c>
       <c r="K29" t="n">
-        <v>2.139</v>
+        <v>2.125</v>
       </c>
       <c r="L29" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="M29"/>
     </row>
@@ -4253,7 +4259,7 @@
         <v>52</v>
       </c>
       <c r="E30" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F30" t="s">
         <v>53</v>
@@ -4268,13 +4274,13 @@
         <v>-0.241</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.328</v>
+        <v>-0.327</v>
       </c>
       <c r="K30" t="n">
         <v>0.256</v>
       </c>
       <c r="L30" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="M30"/>
     </row>
@@ -4292,28 +4298,28 @@
         <v>52</v>
       </c>
       <c r="E31" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.044</v>
+        <v>-0.042</v>
       </c>
       <c r="H31" t="n">
         <v>0.023</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.911</v>
+        <v>-1.81</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.089</v>
+        <v>-0.087</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="L31" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="M31"/>
     </row>
@@ -4448,29 +4454,29 @@
         <v>52</v>
       </c>
       <c r="E35" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.964</v>
+        <v>-1.141</v>
       </c>
       <c r="H35" t="n">
-        <v>0.25</v>
+        <v>0.261</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.852</v>
+        <v>-4.375</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.391</v>
+        <v>-1.652</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.572</v>
+        <v>-0.63</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>0.559</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="36">
@@ -4487,29 +4493,29 @@
         <v>52</v>
       </c>
       <c r="E36" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
       </c>
       <c r="G36" t="n">
-        <v>0.74</v>
+        <v>1.009</v>
       </c>
       <c r="H36" t="n">
-        <v>0.482</v>
+        <v>0.485</v>
       </c>
       <c r="I36" t="n">
-        <v>1.534</v>
+        <v>2.08</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05</v>
+        <v>0.058</v>
       </c>
       <c r="K36" t="n">
-        <v>1.507</v>
+        <v>1.961</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="n">
-        <v>0.559</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="37">
@@ -4526,29 +4532,29 @@
         <v>52</v>
       </c>
       <c r="E37" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
       </c>
       <c r="G37" t="n">
-        <v>0.212</v>
+        <v>0.124</v>
       </c>
       <c r="H37" t="n">
-        <v>0.213</v>
+        <v>0.22</v>
       </c>
       <c r="I37" t="n">
-        <v>0.994</v>
+        <v>0.562</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.154</v>
+        <v>-0.307</v>
       </c>
       <c r="K37" t="n">
-        <v>0.537</v>
+        <v>0.555</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>0.559</v>
+        <v>0.558</v>
       </c>
     </row>
   </sheetData>
@@ -4620,28 +4626,28 @@
         <v>55</v>
       </c>
       <c r="E2" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.732</v>
+        <v>1.721</v>
       </c>
       <c r="H2" t="n">
-        <v>0.214</v>
+        <v>0.213</v>
       </c>
       <c r="I2" t="n">
-        <v>8.086</v>
+        <v>8.068</v>
       </c>
       <c r="J2" t="n">
-        <v>1.312</v>
+        <v>1.303</v>
       </c>
       <c r="K2" t="n">
-        <v>2.152</v>
+        <v>2.139</v>
       </c>
       <c r="L2" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="M2"/>
     </row>
@@ -4659,28 +4665,28 @@
         <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.091</v>
+        <v>-0.092</v>
       </c>
       <c r="H3" t="n">
         <v>0.047</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.94</v>
+        <v>-1.964</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.182</v>
+        <v>-0.183</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="M3"/>
     </row>
@@ -4698,28 +4704,28 @@
         <v>55</v>
       </c>
       <c r="E4" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.045</v>
+        <v>-0.043</v>
       </c>
       <c r="H4" t="n">
         <v>0.023</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.994</v>
+        <v>-1.905</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.09</v>
+        <v>-0.088</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="M4"/>
     </row>
@@ -4737,25 +4743,25 @@
         <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.509</v>
+        <v>-0.448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.725</v>
+        <v>0.715</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.702</v>
+        <v>-0.626</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.929</v>
+        <v>-1.849</v>
       </c>
       <c r="K5" t="n">
-        <v>0.911</v>
+        <v>0.954</v>
       </c>
       <c r="L5" t="n">
         <v>0.4</v>
@@ -4776,25 +4782,25 @@
         <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.392</v>
+        <v>-0.367</v>
       </c>
       <c r="H6" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.3</v>
+        <v>-1.225</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.982</v>
+        <v>-0.955</v>
       </c>
       <c r="K6" t="n">
-        <v>0.199</v>
+        <v>0.22</v>
       </c>
       <c r="L6" t="n">
         <v>0.4</v>
@@ -4815,25 +4821,25 @@
         <v>55</v>
       </c>
       <c r="E7" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.123</v>
+        <v>0.113</v>
       </c>
       <c r="H7" t="n">
-        <v>0.099</v>
+        <v>0.098</v>
       </c>
       <c r="I7" t="n">
-        <v>1.24</v>
+        <v>1.147</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.071</v>
+        <v>-0.08</v>
       </c>
       <c r="K7" t="n">
-        <v>0.317</v>
+        <v>0.306</v>
       </c>
       <c r="L7" t="n">
         <v>0.4</v>
@@ -4869,10 +4875,10 @@
         <v>-3.985</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.41</v>
+        <v>-1.296</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.395</v>
+        <v>-0.441</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
@@ -4908,10 +4914,10 @@
         <v>1.465</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.112</v>
+        <v>-0.111</v>
       </c>
       <c r="K9" t="n">
-        <v>0.947</v>
+        <v>0.766</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
@@ -4947,10 +4953,10 @@
         <v>-0.032</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.382</v>
+        <v>-0.404</v>
       </c>
       <c r="K10" t="n">
-        <v>0.431</v>
+        <v>0.392</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
@@ -4971,28 +4977,28 @@
         <v>58</v>
       </c>
       <c r="E11" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1.675</v>
+        <v>1.661</v>
       </c>
       <c r="H11" t="n">
-        <v>0.216</v>
+        <v>0.215</v>
       </c>
       <c r="I11" t="n">
-        <v>7.769</v>
+        <v>7.742</v>
       </c>
       <c r="J11" t="n">
-        <v>1.252</v>
+        <v>1.241</v>
       </c>
       <c r="K11" t="n">
-        <v>2.097</v>
+        <v>2.082</v>
       </c>
       <c r="L11" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="M11"/>
     </row>
@@ -5010,28 +5016,28 @@
         <v>58</v>
       </c>
       <c r="E12" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>0.109</v>
+        <v>0.128</v>
       </c>
       <c r="H12" t="n">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="I12" t="n">
-        <v>0.981</v>
+        <v>1.15</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.109</v>
+        <v>-0.091</v>
       </c>
       <c r="K12" t="n">
-        <v>0.326</v>
+        <v>0.347</v>
       </c>
       <c r="L12" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="M12"/>
     </row>
@@ -5049,28 +5055,28 @@
         <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.046</v>
+        <v>-0.043</v>
       </c>
       <c r="H13" t="n">
         <v>0.023</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.983</v>
+        <v>-1.886</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.091</v>
+        <v>-0.088</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="L13" t="n">
-        <v>0.387</v>
+        <v>0.388</v>
       </c>
       <c r="M13"/>
     </row>
@@ -5143,28 +5149,28 @@
         <v>61</v>
       </c>
       <c r="E2" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.49</v>
+        <v>1.539</v>
       </c>
       <c r="H2" t="n">
-        <v>0.32</v>
+        <v>0.321</v>
       </c>
       <c r="I2" t="n">
-        <v>4.661</v>
+        <v>4.786</v>
       </c>
       <c r="J2" t="n">
-        <v>0.864</v>
+        <v>0.909</v>
       </c>
       <c r="K2" t="n">
-        <v>2.117</v>
+        <v>2.169</v>
       </c>
       <c r="L2" t="n">
-        <v>0.791</v>
+        <v>0.851</v>
       </c>
       <c r="M2"/>
     </row>
@@ -5182,28 +5188,28 @@
         <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="H3" t="n">
         <v>0.004</v>
       </c>
       <c r="I3" t="n">
-        <v>0.793</v>
+        <v>-0.134</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.005</v>
+        <v>-0.008</v>
       </c>
       <c r="K3" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="L3" t="n">
-        <v>0.791</v>
+        <v>0.851</v>
       </c>
       <c r="M3"/>
     </row>
@@ -5221,28 +5227,28 @@
         <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="H4" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.138</v>
+        <v>-0.057</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.067</v>
+        <v>-0.072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.078</v>
+        <v>0.068</v>
       </c>
       <c r="L4" t="n">
-        <v>0.791</v>
+        <v>0.851</v>
       </c>
       <c r="M4"/>
     </row>
@@ -5260,25 +5266,25 @@
         <v>61</v>
       </c>
       <c r="E5" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.395</v>
+        <v>-0.265</v>
       </c>
       <c r="H5" t="n">
-        <v>0.824</v>
+        <v>0.817</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.48</v>
+        <v>-0.325</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.009</v>
+        <v>-1.865</v>
       </c>
       <c r="K5" t="n">
-        <v>1.219</v>
+        <v>1.335</v>
       </c>
       <c r="L5" t="n">
         <v>0.4</v>
@@ -5299,25 +5305,25 @@
         <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
         <v>62</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="H6" t="n">
         <v>0.019</v>
       </c>
       <c r="I6" t="n">
-        <v>0.158</v>
+        <v>-0.269</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.034</v>
+        <v>-0.042</v>
       </c>
       <c r="K6" t="n">
-        <v>0.039</v>
+        <v>0.032</v>
       </c>
       <c r="L6" t="n">
         <v>0.4</v>
@@ -5338,25 +5344,25 @@
         <v>61</v>
       </c>
       <c r="E7" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1</v>
+        <v>0.083</v>
       </c>
       <c r="H7" t="n">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
       <c r="I7" t="n">
-        <v>0.808</v>
+        <v>0.68</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.143</v>
+        <v>-0.157</v>
       </c>
       <c r="K7" t="n">
-        <v>0.343</v>
+        <v>0.324</v>
       </c>
       <c r="L7" t="n">
         <v>0.4</v>
@@ -5392,10 +5398,10 @@
         <v>-0.493</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.973</v>
+        <v>-0.904</v>
       </c>
       <c r="K8" t="n">
-        <v>0.59</v>
+        <v>0.541</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
@@ -5431,10 +5437,10 @@
         <v>-0.588</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.578</v>
+        <v>-0.568</v>
       </c>
       <c r="K9" t="n">
-        <v>0.273</v>
+        <v>0.306</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
@@ -5470,10 +5476,10 @@
         <v>1.347</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1</v>
+        <v>-0.214</v>
       </c>
       <c r="K10" t="n">
-        <v>1.183</v>
+        <v>1.155</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
@@ -5494,28 +5500,28 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1.484</v>
+        <v>1.542</v>
       </c>
       <c r="H11" t="n">
         <v>0.322</v>
       </c>
       <c r="I11" t="n">
-        <v>4.602</v>
+        <v>4.788</v>
       </c>
       <c r="J11" t="n">
-        <v>0.852</v>
+        <v>0.911</v>
       </c>
       <c r="K11" t="n">
-        <v>2.116</v>
+        <v>2.173</v>
       </c>
       <c r="L11" t="n">
-        <v>0.795</v>
+        <v>0.85</v>
       </c>
       <c r="M11"/>
     </row>
@@ -5533,28 +5539,28 @@
         <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F12" t="s">
         <v>65</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.008</v>
+        <v>0.003</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.388</v>
+        <v>0.157</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.048</v>
+        <v>-0.034</v>
       </c>
       <c r="K12" t="n">
-        <v>0.032</v>
+        <v>0.039</v>
       </c>
       <c r="L12" t="n">
-        <v>0.795</v>
+        <v>0.85</v>
       </c>
       <c r="M12"/>
     </row>
@@ -5572,28 +5578,28 @@
         <v>64</v>
       </c>
       <c r="E13" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="H13" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="I13" t="n">
-        <v>0.177</v>
+        <v>-0.076</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.067</v>
+        <v>-0.074</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08</v>
+        <v>0.068</v>
       </c>
       <c r="L13" t="n">
-        <v>0.795</v>
+        <v>0.85</v>
       </c>
       <c r="M13"/>
     </row>
@@ -5611,28 +5617,28 @@
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.25</v>
+        <v>-1.795</v>
       </c>
       <c r="H14" t="n">
-        <v>0.873</v>
+        <v>0.201</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.287</v>
+        <v>-8.912</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.961</v>
+        <v>-2.19</v>
       </c>
       <c r="K14" t="n">
-        <v>1.461</v>
+        <v>-1.4</v>
       </c>
       <c r="L14" t="n">
-        <v>0.485</v>
+        <v>-0.979</v>
       </c>
       <c r="M14"/>
     </row>
@@ -5650,28 +5656,28 @@
         <v>64</v>
       </c>
       <c r="E15" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>65</v>
       </c>
       <c r="G15" t="n">
-        <v>0.084</v>
+        <v>0.184</v>
       </c>
       <c r="H15" t="n">
-        <v>0.092</v>
+        <v>0.107</v>
       </c>
       <c r="I15" t="n">
-        <v>0.917</v>
+        <v>1.713</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.096</v>
+        <v>-0.027</v>
       </c>
       <c r="K15" t="n">
-        <v>0.265</v>
+        <v>0.394</v>
       </c>
       <c r="L15" t="n">
-        <v>0.485</v>
+        <v>-0.979</v>
       </c>
       <c r="M15"/>
     </row>
@@ -5689,28 +5695,28 @@
         <v>64</v>
       </c>
       <c r="E16" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.073</v>
+        <v>0.226</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.051</v>
       </c>
       <c r="I16" t="n">
-        <v>0.562</v>
+        <v>4.412</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.181</v>
+        <v>0.126</v>
       </c>
       <c r="K16" t="n">
         <v>0.327</v>
       </c>
       <c r="L16" t="n">
-        <v>0.485</v>
+        <v>-0.979</v>
       </c>
       <c r="M16"/>
     </row>
@@ -5743,10 +5749,10 @@
         <v>-1.579</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.017</v>
+        <v>-0.983</v>
       </c>
       <c r="K17" t="n">
-        <v>0.239</v>
+        <v>0.106</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
@@ -5782,10 +5788,10 @@
         <v>0.882</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.291</v>
+        <v>-0.301</v>
       </c>
       <c r="K18" t="n">
-        <v>0.851</v>
+        <v>0.793</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
@@ -5821,10 +5827,10 @@
         <v>1.06</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.228</v>
+        <v>-0.254</v>
       </c>
       <c r="K19" t="n">
-        <v>0.958</v>
+        <v>0.853</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="n">
@@ -5845,28 +5851,28 @@
         <v>67</v>
       </c>
       <c r="E20" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>1.666</v>
+        <v>1.656</v>
       </c>
       <c r="H20" t="n">
-        <v>0.216</v>
+        <v>0.215</v>
       </c>
       <c r="I20" t="n">
-        <v>7.726</v>
+        <v>7.692</v>
       </c>
       <c r="J20" t="n">
-        <v>1.244</v>
+        <v>1.234</v>
       </c>
       <c r="K20" t="n">
-        <v>2.089</v>
+        <v>2.078</v>
       </c>
       <c r="L20" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="M20"/>
     </row>
@@ -5884,28 +5890,28 @@
         <v>67</v>
       </c>
       <c r="E21" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="H21" t="n">
         <v>0.025</v>
       </c>
       <c r="I21" t="n">
-        <v>0.013</v>
+        <v>-0.125</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.049</v>
+        <v>-0.052</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="L21" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="M21"/>
     </row>
@@ -5923,28 +5929,28 @@
         <v>67</v>
       </c>
       <c r="E22" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.044</v>
+        <v>-0.041</v>
       </c>
       <c r="H22" t="n">
         <v>0.023</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.898</v>
+        <v>-1.801</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.089</v>
+        <v>-0.086</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="L22" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="M22"/>
     </row>
@@ -5962,28 +5968,28 @@
         <v>67</v>
       </c>
       <c r="E23" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.78</v>
+        <v>-0.683</v>
       </c>
       <c r="H23" t="n">
-        <v>0.717</v>
+        <v>0.698</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.088</v>
+        <v>-0.979</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.184</v>
+        <v>-2.051</v>
       </c>
       <c r="K23" t="n">
-        <v>0.625</v>
+        <v>0.684</v>
       </c>
       <c r="L23" t="n">
-        <v>0.319</v>
+        <v>0.288</v>
       </c>
       <c r="M23"/>
     </row>
@@ -6001,28 +6007,28 @@
         <v>67</v>
       </c>
       <c r="E24" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
         <v>68</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.08</v>
+        <v>-0.116</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.535</v>
+        <v>-0.769</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.374</v>
+        <v>-0.411</v>
       </c>
       <c r="K24" t="n">
-        <v>0.214</v>
+        <v>0.179</v>
       </c>
       <c r="L24" t="n">
-        <v>0.319</v>
+        <v>0.288</v>
       </c>
       <c r="M24"/>
     </row>
@@ -6040,28 +6046,28 @@
         <v>67</v>
       </c>
       <c r="E25" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.147</v>
+        <v>0.137</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
       <c r="I25" t="n">
-        <v>1.475</v>
+        <v>1.392</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.048</v>
+        <v>-0.056</v>
       </c>
       <c r="K25" t="n">
-        <v>0.343</v>
+        <v>0.329</v>
       </c>
       <c r="L25" t="n">
-        <v>0.319</v>
+        <v>0.288</v>
       </c>
       <c r="M25"/>
     </row>
@@ -6079,29 +6085,29 @@
         <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.813</v>
+        <v>-0.737</v>
       </c>
       <c r="H26" t="n">
-        <v>0.205</v>
+        <v>0.203</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.958</v>
+        <v>-3.633</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.219</v>
+        <v>-1.134</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.381</v>
+        <v>-0.339</v>
       </c>
       <c r="L26"/>
       <c r="M26" t="n">
-        <v>0.559</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="27">
@@ -6118,29 +6124,29 @@
         <v>67</v>
       </c>
       <c r="E27" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
         <v>69</v>
       </c>
       <c r="G27" t="n">
-        <v>0.228</v>
+        <v>0.139</v>
       </c>
       <c r="H27" t="n">
         <v>0.189</v>
       </c>
       <c r="I27" t="n">
-        <v>1.207</v>
+        <v>0.736</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.179</v>
+        <v>-0.231</v>
       </c>
       <c r="K27" t="n">
-        <v>0.623</v>
+        <v>0.51</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>0.559</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="28">
@@ -6157,29 +6163,29 @@
         <v>67</v>
       </c>
       <c r="E28" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.038</v>
+        <v>0.125</v>
       </c>
       <c r="H28" t="n">
-        <v>0.204</v>
+        <v>0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.184</v>
+        <v>0.624</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.454</v>
+        <v>-0.267</v>
       </c>
       <c r="K28" t="n">
-        <v>0.372</v>
+        <v>0.517</v>
       </c>
       <c r="L28"/>
       <c r="M28" t="n">
-        <v>0.559</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="29">
@@ -6196,28 +6202,28 @@
         <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>1.655</v>
+        <v>1.636</v>
       </c>
       <c r="H29" t="n">
-        <v>0.217</v>
+        <v>0.216</v>
       </c>
       <c r="I29" t="n">
-        <v>7.64</v>
+        <v>7.561</v>
       </c>
       <c r="J29" t="n">
-        <v>1.23</v>
+        <v>1.212</v>
       </c>
       <c r="K29" t="n">
-        <v>2.079</v>
+        <v>2.06</v>
       </c>
       <c r="L29" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="M29"/>
     </row>
@@ -6235,28 +6241,28 @@
         <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F30" t="s">
         <v>71</v>
       </c>
       <c r="G30" t="n">
-        <v>0.025</v>
+        <v>0.034</v>
       </c>
       <c r="H30" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
-        <v>0.643</v>
+        <v>0.849</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.051</v>
+        <v>-0.044</v>
       </c>
       <c r="K30" t="n">
-        <v>0.102</v>
+        <v>0.112</v>
       </c>
       <c r="L30" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="M30"/>
     </row>
@@ -6274,28 +6280,28 @@
         <v>70</v>
       </c>
       <c r="E31" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.043</v>
+        <v>-0.04</v>
       </c>
       <c r="H31" t="n">
         <v>0.023</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.867</v>
+        <v>-1.74</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.088</v>
+        <v>-0.085</v>
       </c>
       <c r="K31" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="L31" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="M31"/>
     </row>
@@ -6313,28 +6319,28 @@
         <v>70</v>
       </c>
       <c r="E32" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.819</v>
+        <v>-0.745</v>
       </c>
       <c r="H32" t="n">
-        <v>0.731</v>
+        <v>0.714</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.121</v>
+        <v>-1.043</v>
       </c>
       <c r="J32" t="n">
-        <v>-2.251</v>
+        <v>-2.145</v>
       </c>
       <c r="K32" t="n">
-        <v>0.613</v>
+        <v>0.655</v>
       </c>
       <c r="L32" t="n">
-        <v>0.34</v>
+        <v>0.314</v>
       </c>
       <c r="M32"/>
     </row>
@@ -6352,28 +6358,28 @@
         <v>70</v>
       </c>
       <c r="E33" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
         <v>71</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.017</v>
+        <v>-0.038</v>
       </c>
       <c r="H33" t="n">
         <v>0.176</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.097</v>
+        <v>-0.213</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.363</v>
+        <v>-0.382</v>
       </c>
       <c r="K33" t="n">
-        <v>0.328</v>
+        <v>0.307</v>
       </c>
       <c r="L33" t="n">
-        <v>0.34</v>
+        <v>0.314</v>
       </c>
       <c r="M33"/>
     </row>
@@ -6391,28 +6397,28 @@
         <v>70</v>
       </c>
       <c r="E34" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>0.147</v>
+        <v>0.137</v>
       </c>
       <c r="H34" t="n">
-        <v>0.102</v>
+        <v>0.101</v>
       </c>
       <c r="I34" t="n">
-        <v>1.441</v>
+        <v>1.363</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.053</v>
+        <v>-0.06</v>
       </c>
       <c r="K34" t="n">
-        <v>0.347</v>
+        <v>0.334</v>
       </c>
       <c r="L34" t="n">
-        <v>0.34</v>
+        <v>0.314</v>
       </c>
       <c r="M34"/>
     </row>
@@ -6430,29 +6436,29 @@
         <v>70</v>
       </c>
       <c r="E35" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.784</v>
+        <v>-2.124</v>
       </c>
       <c r="H35" t="n">
-        <v>0.203</v>
+        <v>0.698</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.855</v>
+        <v>-3.042</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.225</v>
+        <v>-3.493</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.431</v>
+        <v>-0.756</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>0.583</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="36">
@@ -6469,29 +6475,29 @@
         <v>70</v>
       </c>
       <c r="E36" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>0.154</v>
+        <v>0.247</v>
       </c>
       <c r="H36" t="n">
-        <v>0.181</v>
+        <v>0.187</v>
       </c>
       <c r="I36" t="n">
-        <v>0.852</v>
+        <v>1.322</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.201</v>
+        <v>-0.119</v>
       </c>
       <c r="K36" t="n">
-        <v>0.521</v>
+        <v>0.614</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="n">
-        <v>0.583</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="37">
@@ -6508,29 +6514,29 @@
         <v>70</v>
       </c>
       <c r="E37" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G37" t="n">
-        <v>0.097</v>
+        <v>0.231</v>
       </c>
       <c r="H37" t="n">
-        <v>0.198</v>
+        <v>0.121</v>
       </c>
       <c r="I37" t="n">
-        <v>0.49</v>
+        <v>1.913</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.327</v>
+        <v>-0.006</v>
       </c>
       <c r="K37" t="n">
-        <v>0.42</v>
+        <v>0.467</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>0.583</v>
+        <v>0.56</v>
       </c>
     </row>
   </sheetData>
@@ -6602,28 +6608,28 @@
         <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.629</v>
+        <v>1.487</v>
       </c>
       <c r="H2" t="n">
-        <v>0.203</v>
+        <v>0.209</v>
       </c>
       <c r="I2" t="n">
-        <v>8.014</v>
+        <v>7.102</v>
       </c>
       <c r="J2" t="n">
-        <v>1.23</v>
+        <v>1.077</v>
       </c>
       <c r="K2" t="n">
-        <v>2.027</v>
+        <v>1.897</v>
       </c>
       <c r="L2" t="n">
-        <v>0.331</v>
+        <v>0.348</v>
       </c>
       <c r="M2"/>
     </row>
@@ -6641,28 +6647,28 @@
         <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F3" t="s">
         <v>75</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.112</v>
+        <v>0.098</v>
       </c>
       <c r="H3" t="n">
         <v>0.056</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.026</v>
+        <v>1.763</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.221</v>
+        <v>-0.011</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.004</v>
+        <v>0.208</v>
       </c>
       <c r="L3" t="n">
-        <v>0.331</v>
+        <v>0.348</v>
       </c>
       <c r="M3"/>
     </row>
@@ -6680,28 +6686,28 @@
         <v>74</v>
       </c>
       <c r="E4" t="n">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.027</v>
+        <v>-0.02</v>
       </c>
       <c r="H4" t="n">
         <v>0.023</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.207</v>
+        <v>-0.897</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.071</v>
+        <v>-0.065</v>
       </c>
       <c r="K4" t="n">
-        <v>0.017</v>
+        <v>0.024</v>
       </c>
       <c r="L4" t="n">
-        <v>0.331</v>
+        <v>0.348</v>
       </c>
       <c r="M4"/>
     </row>
@@ -6719,28 +6725,28 @@
         <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.655</v>
+        <v>-1.04</v>
       </c>
       <c r="H5" t="n">
-        <v>0.608</v>
+        <v>0.628</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.078</v>
+        <v>-1.656</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.847</v>
+        <v>-2.271</v>
       </c>
       <c r="K5" t="n">
-        <v>0.536</v>
+        <v>0.191</v>
       </c>
       <c r="L5" t="n">
-        <v>0.161</v>
+        <v>0.157</v>
       </c>
       <c r="M5"/>
     </row>
@@ -6758,28 +6764,28 @@
         <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
         <v>75</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.518</v>
+        <v>0.443</v>
       </c>
       <c r="H6" t="n">
-        <v>0.293</v>
+        <v>0.298</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.767</v>
+        <v>1.487</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.092</v>
+        <v>-0.141</v>
       </c>
       <c r="K6" t="n">
-        <v>0.057</v>
+        <v>1.027</v>
       </c>
       <c r="L6" t="n">
-        <v>0.161</v>
+        <v>0.157</v>
       </c>
       <c r="M6"/>
     </row>
@@ -6797,28 +6803,28 @@
         <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.173</v>
+        <v>0.157</v>
       </c>
       <c r="H7" t="n">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="I7" t="n">
-        <v>1.896</v>
+        <v>1.708</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.006</v>
+        <v>-0.023</v>
       </c>
       <c r="K7" t="n">
-        <v>0.352</v>
+        <v>0.337</v>
       </c>
       <c r="L7" t="n">
-        <v>0.161</v>
+        <v>0.157</v>
       </c>
       <c r="M7"/>
     </row>
@@ -6836,29 +6842,29 @@
         <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.531</v>
+        <v>-0.85</v>
       </c>
       <c r="H8" t="n">
-        <v>0.434</v>
+        <v>0.229</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.223</v>
+        <v>-3.713</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.253</v>
+        <v>-1.299</v>
       </c>
       <c r="K8" t="n">
-        <v>0.194</v>
+        <v>-0.402</v>
       </c>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.559</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="9">
@@ -6875,29 +6881,29 @@
         <v>74</v>
       </c>
       <c r="E9" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>75</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.319</v>
+        <v>0.414</v>
       </c>
       <c r="H9" t="n">
-        <v>0.487</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.654</v>
+        <v>0.827</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.117</v>
+        <v>-0.566</v>
       </c>
       <c r="K9" t="n">
-        <v>0.516</v>
+        <v>1.394</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>0.559</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="10">
@@ -6914,29 +6920,29 @@
         <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002</v>
+        <v>0.122</v>
       </c>
       <c r="H10" t="n">
-        <v>0.205</v>
+        <v>0.206</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009</v>
+        <v>0.593</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.406</v>
+        <v>-0.281</v>
       </c>
       <c r="K10" t="n">
-        <v>0.425</v>
+        <v>0.525</v>
       </c>
       <c r="L10"/>
       <c r="M10" t="n">
-        <v>0.559</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="11">
@@ -6953,25 +6959,25 @@
         <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1.632</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>0.159</v>
+        <v>0.166</v>
       </c>
       <c r="I11" t="n">
-        <v>10.256</v>
+        <v>8.544</v>
       </c>
       <c r="J11" t="n">
-        <v>1.32</v>
+        <v>1.094</v>
       </c>
       <c r="K11" t="n">
-        <v>1.944</v>
+        <v>1.745</v>
       </c>
       <c r="L11" t="n">
         <v>0.148</v>
@@ -6992,25 +6998,25 @@
         <v>76</v>
       </c>
       <c r="E12" t="n">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.22</v>
+        <v>0.188</v>
       </c>
       <c r="H12" t="n">
-        <v>0.068</v>
+        <v>0.069</v>
       </c>
       <c r="I12" t="n">
-        <v>-3.226</v>
+        <v>2.746</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.354</v>
+        <v>0.054</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.086</v>
+        <v>0.323</v>
       </c>
       <c r="L12" t="n">
         <v>0.148</v>
@@ -7031,25 +7037,25 @@
         <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.024</v>
+        <v>-0.021</v>
       </c>
       <c r="H13" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.958</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.022</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-0.066</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.019</v>
       </c>
       <c r="L13" t="n">
         <v>0.148</v>
@@ -7070,25 +7076,25 @@
         <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.39</v>
+        <v>-0.968</v>
       </c>
       <c r="H14" t="n">
-        <v>0.742</v>
+        <v>0.779</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.525</v>
+        <v>-1.243</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.844</v>
+        <v>-2.494</v>
       </c>
       <c r="K14" t="n">
-        <v>1.065</v>
+        <v>0.558</v>
       </c>
       <c r="L14" t="n">
         <v>0.3</v>
@@ -7109,25 +7115,25 @@
         <v>76</v>
       </c>
       <c r="E15" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.729</v>
+        <v>0.611</v>
       </c>
       <c r="H15" t="n">
-        <v>0.354</v>
+        <v>0.37</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.06</v>
+        <v>1.651</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.422</v>
+        <v>-0.114</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.035</v>
+        <v>1.335</v>
       </c>
       <c r="L15" t="n">
         <v>0.3</v>
@@ -7148,25 +7154,25 @@
         <v>76</v>
       </c>
       <c r="E16" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.125</v>
+        <v>0.11</v>
       </c>
       <c r="H16" t="n">
-        <v>0.108</v>
+        <v>0.11</v>
       </c>
       <c r="I16" t="n">
-        <v>1.156</v>
+        <v>1.006</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.087</v>
+        <v>-0.104</v>
       </c>
       <c r="K16" t="n">
-        <v>0.338</v>
+        <v>0.325</v>
       </c>
       <c r="L16" t="n">
         <v>0.3</v>
@@ -7187,25 +7193,25 @@
         <v>76</v>
       </c>
       <c r="E17" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.155</v>
+        <v>-1.257</v>
       </c>
       <c r="H17" t="n">
-        <v>0.427</v>
+        <v>0.29</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.363</v>
+        <v>-4.339</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.145</v>
+        <v>-1.824</v>
       </c>
       <c r="K17" t="n">
-        <v>0.753</v>
+        <v>-0.689</v>
       </c>
       <c r="L17"/>
       <c r="M17" t="n">
@@ -7226,25 +7232,25 @@
         <v>76</v>
       </c>
       <c r="E18" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.042</v>
+        <v>1.126</v>
       </c>
       <c r="H18" t="n">
-        <v>0.516</v>
+        <v>0.537</v>
       </c>
       <c r="I18" t="n">
-        <v>-2.019</v>
+        <v>2.097</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.219</v>
+        <v>0.074</v>
       </c>
       <c r="K18" t="n">
-        <v>0.272</v>
+        <v>2.178</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
@@ -7265,25 +7271,25 @@
         <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>0.012</v>
+        <v>0.133</v>
       </c>
       <c r="H19" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="I19" t="n">
-        <v>0.051</v>
+        <v>0.541</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.492</v>
+        <v>-0.347</v>
       </c>
       <c r="K19" t="n">
-        <v>0.594</v>
+        <v>0.612</v>
       </c>
       <c r="L19"/>
       <c r="M19" t="n">
@@ -7301,31 +7307,31 @@
         <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>1.438</v>
+        <v>1.422</v>
       </c>
       <c r="H20" t="n">
-        <v>0.208</v>
+        <v>0.21</v>
       </c>
       <c r="I20" t="n">
-        <v>6.927</v>
+        <v>6.761</v>
       </c>
       <c r="J20" t="n">
-        <v>1.031</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>1.845</v>
+        <v>1.834</v>
       </c>
       <c r="L20" t="n">
-        <v>0.333</v>
+        <v>0.352</v>
       </c>
       <c r="M20"/>
     </row>
@@ -7340,31 +7346,31 @@
         <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="n">
-        <v>0.181</v>
+        <v>0.159</v>
       </c>
       <c r="H21" t="n">
         <v>0.051</v>
       </c>
       <c r="I21" t="n">
-        <v>3.528</v>
+        <v>3.103</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08</v>
+        <v>0.059</v>
       </c>
       <c r="K21" t="n">
-        <v>0.281</v>
+        <v>0.259</v>
       </c>
       <c r="L21" t="n">
-        <v>0.333</v>
+        <v>0.352</v>
       </c>
       <c r="M21"/>
     </row>
@@ -7379,31 +7385,31 @@
         <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.028</v>
+        <v>-0.021</v>
       </c>
       <c r="H22" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.246</v>
+        <v>-0.935</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.071</v>
+        <v>-0.065</v>
       </c>
       <c r="K22" t="n">
-        <v>0.016</v>
+        <v>0.023</v>
       </c>
       <c r="L22" t="n">
-        <v>0.333</v>
+        <v>0.352</v>
       </c>
       <c r="M22"/>
     </row>
@@ -7418,31 +7424,31 @@
         <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.065</v>
+        <v>-0.937</v>
       </c>
       <c r="H23" t="n">
-        <v>0.642</v>
+        <v>0.646</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.658</v>
+        <v>-1.449</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.324</v>
+        <v>-2.203</v>
       </c>
       <c r="K23" t="n">
-        <v>0.194</v>
+        <v>0.33</v>
       </c>
       <c r="L23" t="n">
-        <v>0.196</v>
+        <v>0.191</v>
       </c>
       <c r="M23"/>
     </row>
@@ -7457,31 +7463,31 @@
         <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="n">
-        <v>0.377</v>
+        <v>0.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.26</v>
+        <v>0.266</v>
       </c>
       <c r="I24" t="n">
-        <v>1.451</v>
+        <v>1.128</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.132</v>
+        <v>-0.221</v>
       </c>
       <c r="K24" t="n">
-        <v>0.887</v>
+        <v>0.821</v>
       </c>
       <c r="L24" t="n">
-        <v>0.196</v>
+        <v>0.191</v>
       </c>
       <c r="M24"/>
     </row>
@@ -7496,31 +7502,31 @@
         <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.142</v>
+        <v>0.131</v>
       </c>
       <c r="H25" t="n">
         <v>0.092</v>
       </c>
       <c r="I25" t="n">
-        <v>1.54</v>
+        <v>1.414</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.039</v>
+        <v>-0.05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.323</v>
+        <v>0.312</v>
       </c>
       <c r="L25" t="n">
-        <v>0.196</v>
+        <v>0.191</v>
       </c>
       <c r="M25"/>
     </row>
@@ -7535,32 +7541,32 @@
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.214</v>
+        <v>-1.151</v>
       </c>
       <c r="H26" t="n">
-        <v>0.282</v>
+        <v>0.278</v>
       </c>
       <c r="I26" t="n">
-        <v>-4.298</v>
+        <v>-4.135</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.773</v>
+        <v>-1.696</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.721</v>
+        <v>-0.605</v>
       </c>
       <c r="L26"/>
       <c r="M26" t="n">
-        <v>0.543</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="27">
@@ -7574,32 +7580,32 @@
         <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G27" t="n">
-        <v>0.892</v>
+        <v>0.928</v>
       </c>
       <c r="H27" t="n">
         <v>0.408</v>
       </c>
       <c r="I27" t="n">
-        <v>2.185</v>
+        <v>2.271</v>
       </c>
       <c r="J27" t="n">
-        <v>0.139</v>
+        <v>0.127</v>
       </c>
       <c r="K27" t="n">
-        <v>1.658</v>
+        <v>1.728</v>
       </c>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>0.543</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="28">
@@ -7613,32 +7619,32 @@
         <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
         <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>0.117</v>
+        <v>0.166</v>
       </c>
       <c r="H28" t="n">
-        <v>0.207</v>
+        <v>0.206</v>
       </c>
       <c r="I28" t="n">
-        <v>0.564</v>
+        <v>0.803</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.314</v>
+        <v>-0.238</v>
       </c>
       <c r="K28" t="n">
-        <v>0.525</v>
+        <v>0.57</v>
       </c>
       <c r="L28"/>
       <c r="M28" t="n">
-        <v>0.543</v>
+        <v>0.558</v>
       </c>
     </row>
     <row r="29">
@@ -7652,31 +7658,31 @@
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E29" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>1.633</v>
+        <v>1.636</v>
       </c>
       <c r="H29" t="n">
-        <v>0.229</v>
+        <v>0.228</v>
       </c>
       <c r="I29" t="n">
-        <v>7.118</v>
+        <v>7.171</v>
       </c>
       <c r="J29" t="n">
-        <v>1.183</v>
+        <v>1.189</v>
       </c>
       <c r="K29" t="n">
-        <v>2.082</v>
+        <v>2.083</v>
       </c>
       <c r="L29" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="M29"/>
     </row>
@@ -7691,31 +7697,31 @@
         <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E30" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G30" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="H30" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="I30" t="n">
-        <v>0.466</v>
+        <v>0.247</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.041</v>
+        <v>-0.047</v>
       </c>
       <c r="K30" t="n">
-        <v>0.067</v>
+        <v>0.061</v>
       </c>
       <c r="L30" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="M30"/>
     </row>
@@ -7730,31 +7736,31 @@
         <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E31" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.043</v>
+        <v>-0.041</v>
       </c>
       <c r="H31" t="n">
         <v>0.023</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.839</v>
+        <v>-1.76</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.088</v>
+        <v>-0.086</v>
       </c>
       <c r="K31" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="L31" t="n">
-        <v>0.393</v>
+        <v>0.392</v>
       </c>
       <c r="M31"/>
     </row>
@@ -7769,31 +7775,31 @@
         <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.223</v>
+        <v>-1.089</v>
       </c>
       <c r="H32" t="n">
-        <v>0.789</v>
+        <v>0.781</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.55</v>
+        <v>-1.395</v>
       </c>
       <c r="J32" t="n">
-        <v>-2.768</v>
+        <v>-2.62</v>
       </c>
       <c r="K32" t="n">
-        <v>0.323</v>
+        <v>0.441</v>
       </c>
       <c r="L32" t="n">
-        <v>0.351</v>
+        <v>0.328</v>
       </c>
       <c r="M32"/>
     </row>
@@ -7808,31 +7814,31 @@
         <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E33" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G33" t="n">
-        <v>0.177</v>
+        <v>0.141</v>
       </c>
       <c r="H33" t="n">
-        <v>0.141</v>
+        <v>0.142</v>
       </c>
       <c r="I33" t="n">
-        <v>1.259</v>
+        <v>0.992</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.099</v>
+        <v>-0.138</v>
       </c>
       <c r="K33" t="n">
-        <v>0.453</v>
+        <v>0.421</v>
       </c>
       <c r="L33" t="n">
-        <v>0.351</v>
+        <v>0.328</v>
       </c>
       <c r="M33"/>
     </row>
@@ -7847,31 +7853,31 @@
         <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>0.159</v>
+        <v>0.15</v>
       </c>
       <c r="H34" t="n">
-        <v>0.101</v>
+        <v>0.1</v>
       </c>
       <c r="I34" t="n">
-        <v>1.572</v>
+        <v>1.493</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.039</v>
+        <v>-0.047</v>
       </c>
       <c r="K34" t="n">
-        <v>0.358</v>
+        <v>0.347</v>
       </c>
       <c r="L34" t="n">
-        <v>0.351</v>
+        <v>0.328</v>
       </c>
       <c r="M34"/>
     </row>
@@ -7886,32 +7892,32 @@
         <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.86</v>
+        <v>-0.836</v>
       </c>
       <c r="H35" t="n">
         <v>0.21</v>
       </c>
       <c r="I35" t="n">
-        <v>-4.1</v>
+        <v>-3.989</v>
       </c>
       <c r="J35" t="n">
-        <v>-1.359</v>
+        <v>-1.247</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.371</v>
+        <v>-0.425</v>
       </c>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>0.548</v>
+        <v>0.557</v>
       </c>
     </row>
     <row r="36">
@@ -7925,32 +7931,32 @@
         <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G36" t="n">
-        <v>0.455</v>
+        <v>0.473</v>
       </c>
       <c r="H36" t="n">
-        <v>0.205</v>
+        <v>0.207</v>
       </c>
       <c r="I36" t="n">
-        <v>2.222</v>
+        <v>2.282</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.004</v>
+        <v>0.067</v>
       </c>
       <c r="K36" t="n">
-        <v>0.966</v>
+        <v>0.88</v>
       </c>
       <c r="L36"/>
       <c r="M36" t="n">
-        <v>0.548</v>
+        <v>0.557</v>
       </c>
     </row>
     <row r="37">
@@ -7964,32 +7970,32 @@
         <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
         <v>22</v>
       </c>
       <c r="G37" t="n">
-        <v>0.139</v>
+        <v>0.126</v>
       </c>
       <c r="H37" t="n">
-        <v>0.213</v>
+        <v>0.214</v>
       </c>
       <c r="I37" t="n">
-        <v>0.653</v>
+        <v>0.588</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.321</v>
+        <v>-0.293</v>
       </c>
       <c r="K37" t="n">
-        <v>0.645</v>
+        <v>0.544</v>
       </c>
       <c r="L37"/>
       <c r="M37" t="n">
-        <v>0.548</v>
+        <v>0.557</v>
       </c>
     </row>
     <row r="38">
@@ -8003,31 +8009,31 @@
         <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38" t="n">
-        <v>1.529</v>
+        <v>1.489</v>
       </c>
       <c r="H38" t="n">
-        <v>0.217</v>
+        <v>0.216</v>
       </c>
       <c r="I38" t="n">
-        <v>7.056</v>
+        <v>6.901</v>
       </c>
       <c r="J38" t="n">
-        <v>1.104</v>
+        <v>1.066</v>
       </c>
       <c r="K38" t="n">
-        <v>1.953</v>
+        <v>1.911</v>
       </c>
       <c r="L38" t="n">
-        <v>0.372</v>
+        <v>0.376</v>
       </c>
       <c r="M38"/>
     </row>
@@ -8042,31 +8048,31 @@
         <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G39" t="n">
-        <v>0.034</v>
+        <v>0.051</v>
       </c>
       <c r="H39" t="n">
-        <v>0.078</v>
+        <v>0.077</v>
       </c>
       <c r="I39" t="n">
-        <v>0.435</v>
+        <v>0.66</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.118</v>
+        <v>-0.1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.186</v>
+        <v>0.202</v>
       </c>
       <c r="L39" t="n">
-        <v>0.372</v>
+        <v>0.376</v>
       </c>
       <c r="M39"/>
     </row>
@@ -8081,31 +8087,31 @@
         <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.025</v>
+        <v>-0.02</v>
       </c>
       <c r="H40" t="n">
         <v>0.023</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.062</v>
+        <v>-0.847</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.07</v>
+        <v>-0.065</v>
       </c>
       <c r="K40" t="n">
-        <v>0.021</v>
+        <v>0.026</v>
       </c>
       <c r="L40" t="n">
-        <v>0.372</v>
+        <v>0.376</v>
       </c>
       <c r="M40"/>
     </row>
@@ -8120,31 +8126,31 @@
         <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.904</v>
+        <v>-0.861</v>
       </c>
       <c r="H41" t="n">
-        <v>0.796</v>
+        <v>0.784</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.136</v>
+        <v>-1.097</v>
       </c>
       <c r="J41" t="n">
-        <v>-2.464</v>
+        <v>-2.398</v>
       </c>
       <c r="K41" t="n">
-        <v>0.656</v>
+        <v>0.677</v>
       </c>
       <c r="L41" t="n">
-        <v>0.32</v>
+        <v>0.304</v>
       </c>
       <c r="M41"/>
     </row>
@@ -8159,31 +8165,31 @@
         <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.22</v>
+        <v>-0.135</v>
       </c>
       <c r="H42" t="n">
         <v>0.491</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.447</v>
+        <v>-0.275</v>
       </c>
       <c r="J42" t="n">
-        <v>-1.183</v>
+        <v>-1.097</v>
       </c>
       <c r="K42" t="n">
-        <v>0.743</v>
+        <v>0.827</v>
       </c>
       <c r="L42" t="n">
-        <v>0.32</v>
+        <v>0.304</v>
       </c>
       <c r="M42"/>
     </row>
@@ -8198,31 +8204,31 @@
         <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="n">
-        <v>0.186</v>
+        <v>0.169</v>
       </c>
       <c r="H43" t="n">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="I43" t="n">
-        <v>1.72</v>
+        <v>1.571</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.026</v>
+        <v>-0.042</v>
       </c>
       <c r="K43" t="n">
-        <v>0.397</v>
+        <v>0.379</v>
       </c>
       <c r="L43" t="n">
-        <v>0.32</v>
+        <v>0.304</v>
       </c>
       <c r="M43"/>
     </row>
